--- a/Extração_MagazineLuiza/Notebooks.xlsx
+++ b/Extração_MagazineLuiza/Notebooks.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UIPath\Projetos\UiPath\Extração_MagazineLuiza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862CF517-B66D-46B3-AEF7-564B39DE00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBCB01-D17E-43FE-A9CC-08099C4297C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AFE198D8-260B-4805-A87B-D2F30EB43563}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{AFE198D8-260B-4805-A87B-D2F30EB43563}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,373 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="185">
+  <si>
+    <t>Notebook Positivo Vision C15 Intel Celeron 4GB 1</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c15-intel-celeron-4gb-1-128gb-156-hd-windows-11-microsoft-365-c4128a-1/p/237689700/in/ptvm/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i5</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-8gb-ram-ssd-512gb-windows-11-156-15iau7/p/238006100/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook HQ Joy, Intel Celeron, 4GB, SSD 128GB, Tela 14.1", Windows 11, Cinza - NHJ-W11H-CE2</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hq-joy-intel-celeron-4gb-ssd-128gb-tela-14-1-windows-11-cinza-nhj-w11h-ce2/p/caf53d7g25/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 2 Intel Core i3 4GB</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i3-4gb-ssd-256gb-156-full-hd-windows-11-np550xed-kt3br/p/238037400/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book 2 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i5-8gb-ssd-256gb-156-full-hd-windows-11-np550xed-kf2br/p/238037000/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3 4GB RAM</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-4gb-ram-256gb-ssd-156-windows-11-82vy000tbr/p/238006500/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 Intel Core i5 8GB RAM 256GB SSD 15,6” Full HD Windows 11 A515-57-55B8</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-ram-256gb-ssd-156-full-hd-windows-11-a515-57-55b8/p/238056100/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/cbhf91f328/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Ultra UB540 Intel Core i5 8GB RAM SSD 256GB 14" Full HD Windows 11</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-ultra-ub540-intel-core-i5-8gb-ram-ssd-256gb-14-full-hd-windows-11/p/238429000/in/nmls/</t>
+  </si>
+  <si>
+    <t>Notebook HP G9 Intel Core i3 8GB RAM 256GB SSD 15,6” HD Windows 11</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-g9-intel-core-i3-8gb-ram-256gb-ssd-156-hd-windows-11/p/237612600/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 Intel Core i5 12450H 8GB RAM 512GB SSD 15,6” Full HD Windows 11 A515-57-565J</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-12450h-8gb-ram-512gb-ssd-156-full-hd-windows-11-a515-57-565j/p/237866400/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron 15 Intel Core i3 8GB RAM</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-15-intel-core-i3-8gb-ram-ssd-256gb-windows-11-156-i15-i120k-a10p/p/238005900/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 A515-45-R36L AMD Ryzen R7 12GB RAM SSD 512 GB 15,6" Full HD Linux NX.AYDAL.00N</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-45-r36l-amd-ryzen-r7-12gb-ram-ssd-512-gb-156-full-hd-linux-nx-aydal-00n/p/238329900/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-U25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Linux Preto</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-linux-preto/p/ac0a52j369/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Acer Nitro Intel Core i5 8GB 512GB 15,6" 144Hz IPS RTX 2050 Windows 11 ANV15-51-58QL</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-acer-nitro-intel-core-i5-8gb-512gb-156-144hz-ips-rtx-2050-windows-11-anv15-51-58ql/p/238306500/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-windows-11-preto/p/eh7gf69djb/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7 12GB RAM</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-12gb-ram-512gb-ssd-156-windows-11-82vy000pbr/p/238006000/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Vaio Intel Core i5 8GB 512GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-8gb-512gb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/236656000/in/fe15/</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Celeron 4GB 128GB SSD 15,6”</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-4gb-128gb-ssd-156-windows-11-x515ma-br933ws/p/237655900/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebooks ASUS X515MA-BR933WS Intel Celeron Dual Core N4020 4GB 128GB SSD Windows 11 Home 15,60" LED HD Cinza</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebooks-asus-x515ma-br933ws-intel-celeron-dual-core-n4020-4gb-128gb-ssd-windows-11-home-1560-led-hd-cinza/p/jb10g881c4/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo LOQ Intel Core i5 8GB RAM</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-8gb-ram-512gb-ssd-156-full-hd-nvidia-rtx-2050-windows-11/p/238115900/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-preto/p/bdhhf5k9f4/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook M1502IA-EJ252 AMD Ryzen 7 4800H 8Gb Ram 256Gb Ssd Linux KeepOs 15,6” FHD Prata Metálico</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-m1502ia-ej252-amd-ryzen-7-4800h-8gb-ram-256gb-ssd-linux-keepos-156-fhd-prata-metalico/p/kfe4711k01/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 AMD Ryzen7-5700U, 16GB RAM, SSD 512GB, 15.6" Full HD IPS, AMD Radeon, Linux, Prata - A515-45-R74N</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-amd-ryzen7-5700u-16gb-ram-ssd-512gb-15-6-full-hd-ips-amd-radeon-linux-prata-a515-45-r74n/p/ab40jbeagh/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook Acer Aspire 5 A515-57-57T3 Intel Core i5 12ª Geração Windows 11 Home 8GB 512SSD 15,6" FHD</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-57t3-intel-core-i5-12a-geracao-windows-11-home-8gb-512ssd-156-fhd/p/fbkh035a3d/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ732</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-black-nj732/p/fhb18hg1j7/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 16GB, 512GB SSD, 13.3'' Full HD</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-16gb-512gb-ssd-13-3-full-hd/p/kkdhhc3a0k/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Asus Vivobook 15 Intel Core i5 8GB</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-8gb-256gb-ssd-156-linux-endless-os-x1500ea-ej3669/p/236969200/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 512GB 15,6" Full HD Windows 11 NP750XGJ-KG3BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-512gb-156-full-hd-windows-11-np750xgj-kg3br/p/238406900/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Asus VivoBook 15 Intel Core i3 8GB 512GB</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i3-8gb-512gb-ssd-156-full-hd-linux-endless-os-x1500ea-ej3667/p/237451600/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook X1502ZA Intel Core i5 12450H 8GB Ram 512GB SSD Linux Tela 15,6" FHD Blue - EJ1756</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x1502za-intel-core-i5-12450h-8gb-ram-512gb-ssd-linux-tela-156-fhd-blue-ej1756/p/gekb9k3344/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, 8GB RAM, SSD 256GB, 15.6" Full HD, Windows 11 Home, Grafite - NP550XED-KF2BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-8gb-ram-ssd-256gb-15-6-full-hd-windows-11-home-grafite-np550xed-kf2br/p/hed4692a65/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 R5-7520U 8GB 512GB SSD Windows 11 15.6" 82X5000GBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r5-7520u-8gb-512gb-ssd-windows-11-15-6-82x5000gbr-cloud-grey/p/jak6cea937/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Blue - NJ987W</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-blue-nj987w/p/hg7d6a0113/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Motion Red Q464C Intel Atom</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-red-q464c-intel-atom-quad-core-4gb-64gb-emmc-64gb-nuvem-141-led/p/135301500/in/ptvm/</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG4BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg4br/p/238406500/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook HP 256 G9 Intel Core i5 8GB 256GB SSD 15,6" Windows 11 Home</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i5-8gb-256gb-ssd-156-windows-11-home/p/degkjaj4ja/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 Intel CORE I5 8GB 256 GB SSD Tela 15.6 Windows 11 Home</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-8gb-256-gb-ssd-tela-15-6-windows-11-home/p/dkg2d9b7c3/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504GA Intel Core i3 N305 4GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Silver - NJ447</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-silver-nj447/p/chgbd7eccd/in/note/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I1300-M80P 15.6" Full HD 13ª Gen Intel Core i7 16GB 1TB SSD Win 11 Preto Carbono</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m80p-15-6-full-hd-13a-gen-intel-core-i7-16gb-1tb-ssd-win-11-preto-carbono/p/fc4ejd9k41/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Asus Intel Celeron W11 Home 4GB 128GB SSD 15.6 Polegadas X515MA-BR933WS</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-w11-home-4gb-128gb-ssd-15-6-polegadas-x515ma-br933ws/p/bk0cff6d69/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Celeron N4020 4GB 128GB W11 + Office 15.6" - 82VX0001BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-celeron-n4020-4gb-128gb-w11-office-15-6-82vx0001br/p/fa8f38fde5/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2, Windows 11 Home, Intel Core i7-1255U, 8GB, 512GB SSD, 15.6" Full HD LED, Grafite - NP550XED-KS2BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-windows-11-home-intel-core-i7-1255u-8gb-512gb-ssd-15-6-full-hd-led-grafite-np550xed-ks2br/p/gd3aa20294/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 14" 83AF0000BR</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-14-83af0000br/p/cgaede9843/in/leip/</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell G15 AMD Ryzen 5 8GB</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-amd-ryzen-5-8gb-256gb-ssd-156-full-hd-nvidia-rtx-3050-4gb/p/236820200/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook Dell Inspiron I15-I120K-M30P 15.6" Full HD 12ª Geração Intel Core i5 16GB 512GB SSD Windows 11 Preto</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m30p-15-6-full-hd-12a-geracao-intel-core-i5-16gb-512gb-ssd-windows-11-preto/p/jed4b37a66/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 Intel Core i5 16GB RAM 512GB 15,6" Full HD KeepOS X1502ZA-BQ1808</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-16gb-ram-512gb-156-full-hd-keepos-x1502za-bq1808/p/237245500/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Intel Core i5 12450H 8GB RAM 256GB SSD Acer Aspire 5 A515-57-51W5 Tela Full HD 15.6" Linux</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-12450h-8gb-ram-256gb-ssd-acer-aspire-5-a515-57-51w5-tela-full-hd-15-6-linux/p/ha5jff893d/in/nota/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
+  </si>
+  <si>
+    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
+  </si>
+  <si>
+    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
+  </si>
+  <si>
+    <t>4.5 (2)</t>
+  </si>
+  <si>
+    <t>4.0 (1)</t>
+  </si>
+  <si>
+    <t>4.6 (18)</t>
+  </si>
+  <si>
+    <t>5.0 (1)</t>
+  </si>
   <si>
     <t>Produto</t>
   </si>
@@ -48,544 +413,184 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA-NJ986W Intel Core i5 8GB RAM SSD 512GB 15,6" Full HD Windows 11 90NB1022-M01EM0</t>
+    <t>Notebook Asus Vivobook Go 15 Intel Core i3 4GB RAM</t>
   </si>
   <si>
     <t>(10% de desconto)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-nj986w-intel-core-i5-8gb-ram-ssd-512gb-156-full-hd-windows-11-90nb1022-m01em0/p/238469400/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook Go 15 Intel Core i3 4GB RAM</t>
-  </si>
-  <si>
     <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-intel-core-i3-4gb-ram-ssd-256gb-156-full-hd-windows-11-90nb0zt1-m00p90/p/237258100/in/note/</t>
   </si>
   <si>
-    <t>Notebook Positivo Vision C15 Intel Celeron 4GB 1</t>
+    <t>Notebook Samsung Galaxy Book Go Snapdragon 4GB</t>
+  </si>
+  <si>
+    <t>4.6 (806)</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-go-snapdragon-4gb-128gb-ufs-14-full-hd-windows-11-np340xla-k06br/p/236887900/in/nsbo/</t>
+  </si>
+  <si>
+    <t>Notebook Positivo Vision C14 Intel Celeron 4GB</t>
+  </si>
+  <si>
+    <t>4.5 (647)</t>
+  </si>
+  <si>
+    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-intel-celeron-4gb-128gb-emmc-14-hd-windows-11-microsoft-365/p/237689600/in/ptvm/</t>
   </si>
   <si>
     <t>4.7 (417)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c15-intel-celeron-4gb-1-128gb-156-hd-windows-11-microsoft-365-c4128a-1/p/237689700/in/ptvm/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i5</t>
-  </si>
-  <si>
     <t>4.8 (715)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i5-8gb-ram-ssd-512gb-windows-11-156-15iau7/p/238006100/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook HQ Joy, Intel Celeron, 4GB, SSD 128GB, Tela 14.1", Windows 11, Cinza - NHJ-W11H-CE2</t>
-  </si>
-  <si>
     <t>4.9 (8)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hq-joy-intel-celeron-4gb-ssd-128gb-tela-14-1-windows-11-cinza-nhj-w11h-ce2/p/caf53d7g25/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book 2 Intel Core i3 4GB</t>
-  </si>
-  <si>
     <t>4.7 (372)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i3-4gb-ssd-256gb-156-full-hd-windows-11-np550xed-kt3br/p/238037400/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book 2 Intel Core i5 8GB</t>
-  </si>
-  <si>
     <t>4.8 (1398)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book-2-intel-core-i5-8gb-ssd-256gb-156-full-hd-windows-11-np550xed-kf2br/p/238037000/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3 4GB RAM</t>
-  </si>
-  <si>
     <t>4.8 (465)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-4gb-ram-256gb-ssd-156-windows-11-82vy000tbr/p/238006500/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 Intel Core i5 8GB RAM 256GB SSD 15,6” Full HD Windows 11 A515-57-55B8</t>
-  </si>
-  <si>
     <t>4.8 (347)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-8gb-ram-256gb-ssd-156-full-hd-windows-11-a515-57-55b8/p/238056100/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i3-1215U, Windows 11 Home, 8GB, 256GB SSD, 15.6'' Full HD LED</t>
-  </si>
-  <si>
     <t>4.8 (415)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i3-1215u-windows-11-home-8gb-256gb-ssd-15-6-full-hd-led/p/cbhf91f328/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS VivoBook Go 15 E1504GA-NJ447 Intel Core i3 4GB RAM SSD 256GB 15,6" Full HD Linux 90NB0ZT1-M00PS0</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-15-e1504ga-nj447-intel-core-i3-4gb-ram-ssd-256gb-156-full-hd-linux-90nb0zt1-m00ps0/p/238469100/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Ultra UB540 Intel Core i5 8GB RAM SSD 256GB 14" Full HD Windows 11</t>
-  </si>
-  <si>
     <t>4.3 (11)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-ultra-ub540-intel-core-i5-8gb-ram-ssd-256gb-14-full-hd-windows-11/p/238429000/in/nmls/</t>
-  </si>
-  <si>
-    <t>Notebook HP G9 Intel Core i3 8GB RAM 256GB SSD 15,6” HD Windows 11</t>
-  </si>
-  <si>
     <t>4.8 (895)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-g9-intel-core-i3-8gb-ram-256gb-ssd-156-hd-windows-11/p/237612600/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 Intel Core i5 12450H 8GB RAM 512GB SSD 15,6” Full HD Windows 11 A515-57-565J</t>
-  </si>
-  <si>
     <t>4.7 (1121)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-intel-core-i5-12450h-8gb-ram-512gb-ssd-156-full-hd-windows-11-a515-57-565j/p/237866400/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron 15 Intel Core i3 8GB RAM</t>
-  </si>
-  <si>
     <t>4.7 (74)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-15-intel-core-i3-8gb-ram-ssd-256gb-windows-11-156-i15-i120k-a10p/p/238005900/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 A515-45-R36L AMD Ryzen R7 12GB RAM SSD 512 GB 15,6" Full HD Linux NX.AYDAL.00N</t>
-  </si>
-  <si>
     <t>4.5 (29)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-45-r36l-amd-ryzen-r7-12gb-ram-ssd-512-gb-156-full-hd-linux-nx-aydal-00n/p/238329900/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-U25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Linux Preto</t>
+    <t>4.6 (64)</t>
   </si>
   <si>
     <t>4.6 (46)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-u25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-linux-preto/p/ac0a52j369/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Acer Nitro Intel Core i5 8GB 512GB 15,6" 144Hz IPS RTX 2050 Windows 11 ANV15-51-58QL</t>
-  </si>
-  <si>
-    <t>4.6 (64)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-acer-nitro-intel-core-i5-8gb-512gb-156-144hz-ips-rtx-2050-windows-11-anv15-51-58ql/p/238306500/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M25P 15.6" Full HD 12ª Geração Intel Core i5 8GB 512GB SSD Windows 11 Preto</t>
-  </si>
-  <si>
     <t>4.1 (11)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m25p-15-6-full-hd-12a-geracao-intel-core-i5-8gb-512gb-ssd-windows-11-preto/p/eh7gf69djb/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7 12GB RAM</t>
-  </si>
-  <si>
     <t>4.8 (118)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-12gb-ram-512gb-ssd-156-windows-11-82vy000pbr/p/238006000/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Vaio Intel Core i5 8GB 512GB SSD 15,6”</t>
-  </si>
-  <si>
     <t>4.6 (650)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-vaio-intel-core-i5-8gb-512gb-ssd-156-full-hd-windows-11-fe15-vjfe55f11x-b0211h/p/236656000/in/fe15/</t>
-  </si>
-  <si>
-    <t>Notebook Asus Intel Celeron 4GB 128GB SSD 15,6”</t>
-  </si>
-  <si>
     <t>4.3 (4)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-4gb-128gb-ssd-156-windows-11-x515ma-br933ws/p/237655900/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebooks ASUS X515MA-BR933WS Intel Celeron Dual Core N4020 4GB 128GB SSD Windows 11 Home 15,60" LED HD Cinza</t>
-  </si>
-  <si>
     <t>4.4 (9)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebooks-asus-x515ma-br933ws-intel-celeron-dual-core-n4020-4gb-128gb-ssd-windows-11-home-1560-led-hd-cinza/p/jb10g881c4/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo LOQ Intel Core i5 8GB RAM</t>
-  </si>
-  <si>
     <t>4.4 (32)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-intel-core-i5-8gb-ram-512gb-ssd-156-full-hd-nvidia-rtx-2050-windows-11/p/238115900/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M45P 15.6" Full HD 12ª Geração Intel Core i7 16GB 512GB SSD Windows 11 Preto</t>
-  </si>
-  <si>
     <t>4.4 (72)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m45p-15-6-full-hd-12a-geracao-intel-core-i7-16gb-512gb-ssd-windows-11-preto/p/bdhhf5k9f4/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook M1502IA-EJ252 AMD Ryzen 7 4800H 8Gb Ram 256Gb Ssd Linux KeepOs 15,6” FHD Prata Metálico</t>
-  </si>
-  <si>
     <t>4.8 (43)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-m1502ia-ej252-amd-ryzen-7-4800h-8gb-ram-256gb-ssd-linux-keepos-156-fhd-prata-metalico/p/kfe4711k01/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 AMD Ryzen7-5700U, 16GB RAM, SSD 512GB, 15.6" Full HD IPS, AMD Radeon, Linux, Prata - A515-45-R74N</t>
-  </si>
-  <si>
     <t>4.9 (13)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-amd-ryzen7-5700u-16gb-ram-ssd-512gb-15-6-full-hd-ips-amd-radeon-linux-prata-a515-45-r74n/p/ab40jbeagh/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook Acer Aspire 5 A515-57-57T3 Intel Core i5 12ª Geração Windows 11 Home 8GB 512SSD 15,6" FHD</t>
-  </si>
-  <si>
     <t>4.8 (146)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-acer-aspire-5-a515-57-57t3-intel-core-i5-12a-geracao-windows-11-home-8gb-512ssd-156-fhd/p/fbkh035a3d/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ732</t>
-  </si>
-  <si>
     <t>4.8 (5)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-black-nj732/p/fhb18hg1j7/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 16GB, 512GB SSD, 13.3'' Full HD</t>
-  </si>
-  <si>
     <t>4.6 (14)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-16gb-512gb-ssd-13-3-full-hd/p/kkdhhc3a0k/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Compaq Presario 427 Intel Pentium N3700</t>
-  </si>
-  <si>
     <t>3.9 (781)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-compaq-presario-427-intel-pentium-n3700-4gb-240gb-ssd-141-linux/p/233508700/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Asus Vivobook 15 Intel Core i5 8GB</t>
-  </si>
-  <si>
     <t>4.4 (301)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-8gb-256gb-ssd-156-linux-endless-os-x1500ea-ej3669/p/236969200/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 512GB 15,6" Full HD Windows 11 NP750XGJ-KG3BR</t>
-  </si>
-  <si>
     <t>5.0 (2)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-512gb-156-full-hd-windows-11-np750xgj-kg3br/p/238406900/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Asus VivoBook 15 Intel Core i3 8GB 512GB</t>
-  </si>
-  <si>
     <t>3.9 (29)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i3-8gb-512gb-ssd-156-full-hd-linux-endless-os-x1500ea-ej3667/p/237451600/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook X1502ZA Intel Core i5 12450H 8GB Ram 512GB SSD Linux Tela 15,6" FHD Blue - EJ1756</t>
-  </si>
-  <si>
     <t>5.0 (6)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-x1502za-intel-core-i5-12450h-8gb-ram-512gb-ssd-linux-tela-156-fhd-blue-ej1756/p/gekb9k3344/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel Core i5-1235U, 8GB RAM, SSD 256GB, 15.6" Full HD, Windows 11 Home, Grafite - NP550XED-KF2BR</t>
-  </si>
-  <si>
     <t>4.8 (10)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-1235u-8gb-ram-ssd-256gb-15-6-full-hd-windows-11-home-grafite-np550xed-kf2br/p/hed4692a65/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 R5-7520U 8GB 512GB SSD Windows 11 15.6" 82X5000GBR Cloud Grey</t>
-  </si>
-  <si>
     <t>4.8 (39)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r5-7520u-8gb-512gb-ssd-windows-11-15-6-82x5000gbr-cloud-grey/p/jak6cea937/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Vision C14 Lumina BAR Intel Celeron Dual Core Linux 8GB 240GB SSD 14” HD Cinza</t>
-  </si>
-  <si>
     <t>4.0 (3)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-vision-c14-lumina-bar-intel-celeron-dual-core-linux-8gb-240gb-ssd-14-hd-cinza/p/dfk5ec696g/in/ptvm/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 8GB Ram 512GB SSD Windows 11 Tela 15,6" FHD Blue - NJ987W</t>
-  </si>
-  <si>
     <t>4.9 (10)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-8gb-ram-512gb-ssd-windows-11-tela-156-fhd-blue-nj987w/p/hg7d6a0113/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Positivo Motion Red Q464C Intel Atom</t>
-  </si>
-  <si>
     <t>3.1 (361)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-positivo-motion-red-q464c-intel-atom-quad-core-4gb-64gb-emmc-64gb-nuvem-141-led/p/135301500/in/ptvm/</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Lenovo LOQ 15IRH8 Intel Core i5-12450H 15.6" GeForce RTX 2050 512GB 8GB Windows 11</t>
-  </si>
-  <si>
     <t>4.9 (31)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-lenovo-loq-15irh8-intel-core-i5-12450h-15-6-geforce-rtx-2050-512gb-8gb-windows-11/p/je2fghfkg6/in/ntbg/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i7-1255U 16GB 512GB SSD Windows 11 Home 15.6" 82VY000NBR</t>
-  </si>
-  <si>
     <t>4.7 (53)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i7-1255u-16gb-512gb-ssd-windows-11-home-15-6-82vy000nbr/p/akbj5ehbe9/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i5 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG4BR</t>
-  </si>
-  <si>
-    <t>5.0 (1)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i5-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg4br/p/238406500/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook HP 256 G9 Intel Core i5 8GB 256GB SSD 15,6" Windows 11 Home</t>
-  </si>
-  <si>
     <t>4.8 (80)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-hp-256-g9-intel-core-i5-8gb-256gb-ssd-156-windows-11-home/p/degkjaj4ja/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book4 Intel Core i3 8GB RAM SSD 256GB 15,6" Full HD Windows 11 NP750XGJ-KG5BR</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book4-intel-core-i3-8gb-ram-ssd-256gb-156-full-hd-windows-11-np750xgj-kg5br/p/238407300/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 Intel CORE I5 8GB 256 GB SSD Tela 15.6 Windows 11 Home</t>
-  </si>
-  <si>
     <t>5.0 (21)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-intel-core-i5-8gb-256-gb-ssd-tela-15-6-windows-11-home/p/dkg2d9b7c3/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504GA Intel Core i3 N305 4GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Silver - NJ447</t>
-  </si>
-  <si>
     <t>4.8 (41)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504ga-intel-core-i3-n305-4gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-silver-nj447/p/chgbd7eccd/in/note/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I1300-M80P 15.6" Full HD 13ª Gen Intel Core i7 16GB 1TB SSD Win 11 Preto Carbono</t>
-  </si>
-  <si>
-    <t>4.5 (2)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i1300-m80p-15-6-full-hd-13a-gen-intel-core-i7-16gb-1tb-ssd-win-11-preto-carbono/p/fc4ejd9k41/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo Ultrafino IdeaPad 1 R3-7320U 4GB 256GB SSD Windows Home 15.6" 82X5000EBR Cloud Grey</t>
-  </si>
-  <si>
     <t>4.7 (32)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ultrafino-ideapad-1-r3-7320u-4gb-256gb-ssd-windows-home-15-6-82x5000ebr-cloud-grey/p/bkcbg28d1h/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book3 360, Windows 11 Home, Intel Core i5-1335U, 8 GB, 256 GB SSD, 13.3" Full HD AMOLED, 1.16 kg</t>
-  </si>
-  <si>
     <t>4.9 (17)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book3-360-windows-11-home-intel-core-i5-1335u-8-gb-256-gb-ssd-13-3-full-hd-amoled-1-16-kg/p/djc87fd7b4/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Asus Intel Celeron W11 Home 4GB 128GB SSD 15.6 Polegadas X515MA-BR933WS</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-intel-celeron-w11-home-4gb-128gb-ssd-15-6-polegadas-x515ma-br933ws/p/bk0cff6d69/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Celeron N4020 4GB 128GB W11 + Office 15.6" - 82VX0001BR</t>
-  </si>
-  <si>
     <t>4.1 (12)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-celeron-n4020-4gb-128gb-w11-office-15-6-82vx0001br/p/fa8f38fde5/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2, Windows 11 Home, Intel Core i7-1255U, 8GB, 512GB SSD, 15.6" Full HD LED, Grafite - NP550XED-KS2BR</t>
-  </si>
-  <si>
     <t>4.8 (20)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-windows-11-home-intel-core-i7-1255u-8gb-512gb-ssd-15-6-full-hd-led-grafite-np550xed-ks2br/p/gd3aa20294/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Lenovo IdeaPad 1i Intel Core i3-1215U 4GB 256GB SSD Windows 11 Home 14" 83AF0000BR</t>
-  </si>
-  <si>
     <t>5.0 (36)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-lenovo-ideapad-1i-intel-core-i3-1215u-4gb-256gb-ssd-windows-11-home-14-83af0000br/p/cgaede9843/in/leip/</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Dell G15 AMD Ryzen 5 8GB</t>
-  </si>
-  <si>
     <t>4.5 (113)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-amd-ryzen-5-8gb-256gb-ssd-156-full-hd-nvidia-rtx-3050-4gb/p/236820200/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook Dell Inspiron I15-I120K-M30P 15.6" Full HD 12ª Geração Intel Core i5 16GB 512GB SSD Windows 11 Preto</t>
-  </si>
-  <si>
     <t>4.7 (66)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-dell-inspiron-i15-i120k-m30p-15-6-full-hd-12a-geracao-intel-core-i5-16gb-512gb-ssd-windows-11-preto/p/jed4b37a66/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 Intel Core i5 16GB RAM 512GB 15,6" Full HD KeepOS X1502ZA-BQ1808</t>
-  </si>
-  <si>
     <t>3.0 (6)</t>
   </si>
   <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-intel-core-i5-16gb-ram-512gb-156-full-hd-keepos-x1502za-bq1808/p/237245500/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Samsung Galaxy Book2 360 Intel Core i5-1235U, Windows 11 Home, 8GB, 256GB SSD, 13.3'' Full HD</t>
-  </si>
-  <si>
     <t>5.0 (12)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-samsung-galaxy-book2-360-intel-core-i5-1235u-windows-11-home-8gb-256gb-ssd-13-3-full-hd/p/gfd18f1d65/in/nsbo/</t>
-  </si>
-  <si>
-    <t>Notebook Intel Core i5 12450H 8GB RAM 256GB SSD Acer Aspire 5 A515-57-51W5 Tela Full HD 15.6" Linux</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-intel-core-i5-12450h-8gb-ram-256gb-ssd-acer-aspire-5-a515-57-51w5-tela-full-hd-15-6-linux/p/ha5jff893d/in/nota/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook 15 X1504ZA Intel Core i5 1235U 16GB Ram 512GB SSD Linux KeepOS Tela 15,6" FHD Blue - NJ931</t>
-  </si>
-  <si>
-    <t>4.0 (1)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-15-x1504za-intel-core-i5-1235u-16gb-ram-512gb-ssd-linux-keepos-tela-156-fhd-blue-nj931/p/kk5jkbadb5/in/nass/</t>
-  </si>
-  <si>
-    <t>Notebook Gamer Dell G15-i1300-M30P 15.6" FHD 13ª Geração Intel Core i5 16GB 512GB SSD NVIDIA RTX 3050 Windows 11</t>
-  </si>
-  <si>
-    <t>4.6 (18)</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-gamer-dell-g15-i1300-m30p-15-6-fhd-13a-geracao-intel-core-i5-16gb-512gb-ssd-nvidia-rtx-3050-windows-11/p/jbdda11749/in/nodl/</t>
-  </si>
-  <si>
-    <t>Notebook ASUS Vivobook Go E1504FA AMD Ryzen 5 7520U 8GB Ram 256GB SSD Linux KeepOS Tela 15,6" FHD Black - NJ731</t>
-  </si>
-  <si>
-    <t>https://www.magazineluiza.com.br/notebook-asus-vivobook-go-e1504fa-amd-ryzen-5-7520u-8gb-ram-256gb-ssd-linux-keepos-tela-156-fhd-black-nj731/p/jh9c6ffhdk/in/note/</t>
   </si>
 </sst>
 </file>
@@ -971,710 +976,698 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3A1E8B-78AA-41CF-AE12-93D23C6F6CB9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>